--- a/slinear_VTRF.xlsx
+++ b/slinear_VTRF.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime Santos\Documents\DataSBAMF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5E78B7-E78F-4AF9-8512-0F286542C69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A36E556-A9E5-4735-B0B1-EC5C09FFC16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A3B69415-6897-42F1-A06F-FA1D07EB1FB7}"/>
   </bookViews>
   <sheets>
-    <sheet name="linear_VTRF" sheetId="1" r:id="rId1"/>
+    <sheet name="slinear_VTRF" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -420,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B54582-0077-496F-B3B4-177A38B35C89}">
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1276,7 +1276,7 @@
         <v>0.1113</v>
       </c>
       <c r="C77" s="2">
-        <v>10.87</v>
+        <v>0.1087</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -1287,7 +1287,7 @@
         <v>8.3199999999999996E-2</v>
       </c>
       <c r="C78" s="2">
-        <v>8.26</v>
+        <v>8.2600000000000007E-2</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -1298,7 +1298,7 @@
         <v>0.1472</v>
       </c>
       <c r="C79" s="2">
-        <v>10.9</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -1309,7 +1309,7 @@
         <v>5.6800000000000003E-2</v>
       </c>
       <c r="C80" s="2">
-        <v>6.46</v>
+        <v>6.4600000000000005E-2</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -1320,7 +1320,7 @@
         <v>7.7499999999999999E-2</v>
       </c>
       <c r="C81" s="2">
-        <v>19.45</v>
+        <v>0.19450000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -1331,7 +1331,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="C82" s="2">
-        <v>13.62</v>
+        <v>0.13619999999999999</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -1342,7 +1342,7 @@
         <v>9.7500000000000003E-2</v>
       </c>
       <c r="C83" s="2">
-        <v>8.48</v>
+        <v>8.48E-2</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -1353,7 +1353,7 @@
         <v>7.51E-2</v>
       </c>
       <c r="C84" s="2">
-        <v>13.53</v>
+        <v>0.1353</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">

--- a/slinear_VTRF.xlsx
+++ b/slinear_VTRF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime Santos\Documents\DataSBAMF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A36E556-A9E5-4735-B0B1-EC5C09FFC16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A2F1DAF8-8D33-4D74-993F-130ECE0756D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A3B69415-6897-42F1-A06F-FA1D07EB1FB7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>MOB</t>
   </si>
@@ -43,33 +43,20 @@
     <t>Values</t>
   </si>
   <si>
-    <t>PDValues</t>
+    <t>BMonthVal</t>
+  </si>
+  <si>
+    <t>PDMonthVal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -95,15 +82,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B54582-0077-496F-B3B4-177A38B35C89}">
-  <dimension ref="A1:J99"/>
+  <dimension ref="A1:N113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F111" sqref="F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -429,1099 +410,1596 @@
     <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>202101</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>202102</v>
+      </c>
+      <c r="D3">
         <v>4.4400000000000002E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>3.32E-2</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
+        <v>202103</v>
+      </c>
+      <c r="D4">
         <v>9.35E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
+        <v>202104</v>
+      </c>
+      <c r="D5">
         <v>2.6599999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
         <v>1.35E-2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
+        <v>202105</v>
+      </c>
+      <c r="D6">
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>202106</v>
+      </c>
+      <c r="D7">
         <v>1.78E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>202107</v>
+      </c>
+      <c r="D8">
         <v>3.85E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
         <v>5.5E-2</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
+        <v>202108</v>
+      </c>
+      <c r="D9">
         <v>5.7700000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>202109</v>
+      </c>
+      <c r="D10">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>202110</v>
+      </c>
+      <c r="D11">
         <v>3.0300000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>202111</v>
+      </c>
+      <c r="D12">
         <v>1.84E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
+        <v>202112</v>
+      </c>
+      <c r="D13">
         <v>6.08E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
         <v>6.3700000000000007E-2</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14">
+        <v>202201</v>
+      </c>
+      <c r="D14">
         <v>8.1299999999999997E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>0</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>202202</v>
+      </c>
+      <c r="D15">
         <v>6.5699999999999995E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>1</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
         <v>4.4400000000000002E-2</v>
       </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="C16">
+        <v>202101</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>1</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
         <v>9.35E-2</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17">
+        <v>202102</v>
+      </c>
+      <c r="D17">
         <v>7.7299999999999994E-2</v>
       </c>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>1</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18">
         <v>2.6599999999999999E-2</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18">
+        <v>202103</v>
+      </c>
+      <c r="D18">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>1</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19">
         <v>0.14299999999999999</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19">
+        <v>202104</v>
+      </c>
+      <c r="D19">
         <v>7.3099999999999998E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>1</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20">
         <v>1.78E-2</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20">
+        <v>202105</v>
+      </c>
+      <c r="D20">
         <v>4.7899999999999998E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>1</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21">
         <v>3.85E-2</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21">
+        <v>202106</v>
+      </c>
+      <c r="D21">
         <v>3.7600000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>1</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22">
         <v>5.7700000000000001E-2</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22">
+        <v>202107</v>
+      </c>
+      <c r="D22">
         <v>0.1047</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>1</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23">
+        <v>202108</v>
+      </c>
+      <c r="D23">
         <v>7.1099999999999997E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>1</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24">
         <v>3.0300000000000001E-2</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24">
+        <v>202109</v>
+      </c>
+      <c r="D24">
         <v>6.1400000000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>1</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25">
         <v>1.84E-2</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25">
+        <v>202110</v>
+      </c>
+      <c r="D25">
         <v>4.1099999999999998E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>1</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26">
         <v>6.08E-2</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26">
+        <v>202111</v>
+      </c>
+      <c r="D26">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>1</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27">
         <v>8.1299999999999997E-2</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27">
+        <v>202112</v>
+      </c>
+      <c r="D27">
         <v>8.3500000000000005E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>1</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28">
         <v>6.5699999999999995E-2</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28">
+        <v>202201</v>
+      </c>
+      <c r="D28">
         <v>6.88E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>1</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29">
         <v>0.10920000000000001</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29">
+        <v>202202</v>
+      </c>
+      <c r="D29">
         <v>0.13170000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>2</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30">
         <v>7.7299999999999994E-2</v>
       </c>
-      <c r="C30" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="C30">
+        <v>202101</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>2</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31">
+        <v>202102</v>
+      </c>
+      <c r="D31">
         <v>8.3799999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>2</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32">
         <v>7.3099999999999998E-2</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32">
+        <v>202103</v>
+      </c>
+      <c r="D32">
         <v>9.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>2</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33">
         <v>4.7899999999999998E-2</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33">
+        <v>202104</v>
+      </c>
+      <c r="D33">
         <v>4.3200000000000002E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>2</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34">
         <v>3.7600000000000001E-2</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34">
+        <v>202105</v>
+      </c>
+      <c r="D34">
         <v>9.7799999999999998E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>2</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35">
         <v>0.1047</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35">
+        <v>202106</v>
+      </c>
+      <c r="D35">
         <v>5.3499999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>2</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36">
         <v>7.1099999999999997E-2</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36">
+        <v>202107</v>
+      </c>
+      <c r="D36">
         <v>7.6700000000000004E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>2</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37">
         <v>6.1400000000000003E-2</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37">
+        <v>202108</v>
+      </c>
+      <c r="D37">
         <v>9.2799999999999994E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>2</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38">
         <v>4.1099999999999998E-2</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38">
+        <v>202109</v>
+      </c>
+      <c r="D38">
         <v>7.0800000000000002E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
         <v>2</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39">
+        <v>202110</v>
+      </c>
+      <c r="D39">
         <v>7.1599999999999997E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>2</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40">
         <v>8.3500000000000005E-2</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40">
+        <v>202111</v>
+      </c>
+      <c r="D40">
         <v>6.3100000000000003E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
         <v>2</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41">
         <v>6.88E-2</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41">
+        <v>202112</v>
+      </c>
+      <c r="D41">
         <v>5.9900000000000002E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>2</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42">
         <v>0.13170000000000001</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42">
+        <v>202201</v>
+      </c>
+      <c r="D42">
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>202202</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>3</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B44">
         <v>8.3799999999999999E-2</v>
       </c>
-      <c r="C43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+      <c r="C44">
+        <v>202101</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>3</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B45">
         <v>9.2499999999999999E-2</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C45">
+        <v>202102</v>
+      </c>
+      <c r="D45">
         <v>7.8799999999999995E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>3</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B46">
         <v>4.3200000000000002E-2</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C46">
+        <v>202103</v>
+      </c>
+      <c r="D46">
         <v>9.4399999999999998E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>3</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B47">
         <v>9.7799999999999998E-2</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C47">
+        <v>202104</v>
+      </c>
+      <c r="D47">
         <v>6.7599999999999993E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
         <v>3</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B48">
         <v>5.3499999999999999E-2</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C48">
+        <v>202105</v>
+      </c>
+      <c r="D48">
         <v>0.19020000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
         <v>3</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B49">
         <v>7.6700000000000004E-2</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C49">
+        <v>202106</v>
+      </c>
+      <c r="D49">
         <v>5.9700000000000003E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
         <v>3</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B50">
         <v>9.2799999999999994E-2</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C50">
+        <v>202107</v>
+      </c>
+      <c r="D50">
         <v>8.3699999999999997E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
         <v>3</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B51">
         <v>7.0800000000000002E-2</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C51">
+        <v>202108</v>
+      </c>
+      <c r="D51">
         <v>9.64E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
         <v>3</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B52">
         <v>7.1599999999999997E-2</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C52">
+        <v>202109</v>
+      </c>
+      <c r="D52">
         <v>9.6199999999999994E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
         <v>3</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B53">
         <v>6.3100000000000003E-2</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C53">
+        <v>202110</v>
+      </c>
+      <c r="D53">
         <v>7.2400000000000006E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
         <v>3</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B54">
         <v>5.9900000000000002E-2</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C54">
+        <v>202111</v>
+      </c>
+      <c r="D54">
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
         <v>3</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B55">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C55">
+        <v>202112</v>
+      </c>
+      <c r="D55">
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>202201</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>202202</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
         <v>4</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B58">
         <v>7.8799999999999995E-2</v>
       </c>
-      <c r="C55" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+      <c r="C58">
+        <v>202101</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
         <v>4</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B59">
         <v>9.4399999999999998E-2</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C59">
+        <v>202102</v>
+      </c>
+      <c r="D59">
         <v>9.1300000000000006E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
         <v>4</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B60">
         <v>6.7599999999999993E-2</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C60">
+        <v>202103</v>
+      </c>
+      <c r="D60">
         <v>0.11360000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
         <v>4</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B61">
         <v>0.19020000000000001</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C61">
+        <v>202104</v>
+      </c>
+      <c r="D61">
         <v>9.5299999999999996E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
         <v>4</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B62">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C62">
+        <v>202105</v>
+      </c>
+      <c r="D62">
         <v>0.13339999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
         <v>4</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B63">
         <v>8.3699999999999997E-2</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C63">
+        <v>202106</v>
+      </c>
+      <c r="D63">
         <v>6.5600000000000006E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
         <v>4</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B64">
         <v>9.64E-2</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C64">
+        <v>202107</v>
+      </c>
+      <c r="D64">
         <v>8.1199999999999994E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
         <v>4</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B65">
         <v>9.6199999999999994E-2</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C65">
+        <v>202108</v>
+      </c>
+      <c r="D65">
         <v>9.7699999999999995E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
         <v>4</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B66">
         <v>7.2400000000000006E-2</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C66">
+        <v>202109</v>
+      </c>
+      <c r="D66">
         <v>8.9700000000000002E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
         <v>4</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B67">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C67">
+        <v>202110</v>
+      </c>
+      <c r="D67">
         <v>5.7700000000000001E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
         <v>4</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B68">
         <v>9.4E-2</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C68">
+        <v>202111</v>
+      </c>
+      <c r="D68">
         <v>7.1199999999999999E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>4</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>202112</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>4</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>202201</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>4</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>202202</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
         <v>5</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B72">
         <v>9.1300000000000006E-2</v>
       </c>
-      <c r="C66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
+      <c r="C72">
+        <v>202101</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
         <v>5</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B73">
         <v>0.11360000000000001</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C73">
+        <v>202102</v>
+      </c>
+      <c r="D73">
         <v>9.3100000000000002E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
         <v>5</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B74">
         <v>9.5299999999999996E-2</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C74">
+        <v>202103</v>
+      </c>
+      <c r="D74">
         <v>0.1113</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
         <v>5</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B75">
         <v>0.13339999999999999</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C75">
+        <v>202104</v>
+      </c>
+      <c r="D75">
         <v>8.3199999999999996E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
         <v>5</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B76">
         <v>6.5600000000000006E-2</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C76">
+        <v>202105</v>
+      </c>
+      <c r="D76">
         <v>0.1472</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
         <v>5</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B77">
         <v>8.1199999999999994E-2</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C77">
+        <v>202106</v>
+      </c>
+      <c r="D77">
         <v>5.6800000000000003E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
         <v>5</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B78">
         <v>9.7699999999999995E-2</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C78">
+        <v>202107</v>
+      </c>
+      <c r="D78">
         <v>7.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
         <v>5</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B79">
         <v>8.9700000000000002E-2</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C79">
+        <v>202108</v>
+      </c>
+      <c r="D79">
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
         <v>5</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B80">
         <v>5.7700000000000001E-2</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C80">
+        <v>202109</v>
+      </c>
+      <c r="D80">
         <v>9.7500000000000003E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
         <v>5</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B81">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C81">
+        <v>202110</v>
+      </c>
+      <c r="D81">
         <v>7.51E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>5</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>202111</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>5</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>202112</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>5</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>202201</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>5</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>202202</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
         <v>6</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B86">
         <v>9.3100000000000002E-2</v>
       </c>
-      <c r="C76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
+      <c r="C86">
+        <v>202101</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
         <v>6</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B87">
         <v>0.1113</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C87">
+        <v>202102</v>
+      </c>
+      <c r="D87">
         <v>0.1087</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
         <v>6</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B88">
         <v>8.3199999999999996E-2</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C88">
+        <v>202103</v>
+      </c>
+      <c r="D88">
         <v>8.2600000000000007E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
         <v>6</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B89">
         <v>0.1472</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C89">
+        <v>202104</v>
+      </c>
+      <c r="D89">
         <v>0.109</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
         <v>6</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B90">
         <v>5.6800000000000003E-2</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C90">
+        <v>202105</v>
+      </c>
+      <c r="D90">
         <v>6.4600000000000005E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
         <v>6</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B91">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C91">
+        <v>202106</v>
+      </c>
+      <c r="D91">
         <v>0.19450000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
         <v>6</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B92">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C92">
+        <v>202107</v>
+      </c>
+      <c r="D92">
         <v>0.13619999999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
         <v>6</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B93">
         <v>9.7500000000000003E-2</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C93">
+        <v>202108</v>
+      </c>
+      <c r="D93">
         <v>8.48E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
         <v>6</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B94">
         <v>7.51E-2</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C94">
+        <v>202109</v>
+      </c>
+      <c r="D94">
         <v>0.1353</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
         <v>6</v>
       </c>
-      <c r="B85" s="2">
-        <v>0</v>
-      </c>
-      <c r="C85" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>202110</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
         <v>6</v>
       </c>
-      <c r="B86" s="2">
-        <v>0</v>
-      </c>
-      <c r="C86" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>202111</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
         <v>6</v>
       </c>
-      <c r="B87" s="2">
-        <v>0</v>
-      </c>
-      <c r="C87" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>202112</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
         <v>6</v>
       </c>
-      <c r="B88" s="2">
-        <v>0</v>
-      </c>
-      <c r="C88" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>202201</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
         <v>6</v>
       </c>
-      <c r="B89" s="2">
-        <v>0</v>
-      </c>
-      <c r="C89" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="2">
-        <v>2</v>
-      </c>
-      <c r="B90" s="2">
-        <v>0</v>
-      </c>
-      <c r="C90" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
-        <v>3</v>
-      </c>
-      <c r="B91" s="2">
-        <v>0</v>
-      </c>
-      <c r="C91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="2">
-        <v>3</v>
-      </c>
-      <c r="B92" s="2">
-        <v>0</v>
-      </c>
-      <c r="C92" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
-        <v>4</v>
-      </c>
-      <c r="B93" s="2">
-        <v>0</v>
-      </c>
-      <c r="C93" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
-        <v>4</v>
-      </c>
-      <c r="B94" s="2">
-        <v>0</v>
-      </c>
-      <c r="C94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
-        <v>4</v>
-      </c>
-      <c r="B95" s="2">
-        <v>0</v>
-      </c>
-      <c r="C95" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="2">
-        <v>5</v>
-      </c>
-      <c r="B96" s="2">
-        <v>0</v>
-      </c>
-      <c r="C96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
-        <v>5</v>
-      </c>
-      <c r="B97" s="2">
-        <v>0</v>
-      </c>
-      <c r="C97" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="2">
-        <v>5</v>
-      </c>
-      <c r="B98" s="2">
-        <v>0</v>
-      </c>
-      <c r="C98" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="2">
-        <v>5</v>
-      </c>
-      <c r="B99" s="2">
-        <v>0</v>
-      </c>
-      <c r="C99" s="3">
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>202202</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>7</v>
+      </c>
+      <c r="B100">
+        <v>0.1087</v>
+      </c>
+      <c r="C100">
+        <v>202101</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>7</v>
+      </c>
+      <c r="B101">
+        <v>8.2600000000000007E-2</v>
+      </c>
+      <c r="C101">
+        <v>202102</v>
+      </c>
+      <c r="D101">
+        <v>9.2700000000000005E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>7</v>
+      </c>
+      <c r="B102">
+        <v>0.109</v>
+      </c>
+      <c r="C102">
+        <v>202103</v>
+      </c>
+      <c r="D102">
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>7</v>
+      </c>
+      <c r="B103">
+        <v>6.4600000000000005E-2</v>
+      </c>
+      <c r="C103">
+        <v>202104</v>
+      </c>
+      <c r="D103">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>7</v>
+      </c>
+      <c r="B104">
+        <v>0.19450000000000001</v>
+      </c>
+      <c r="C104">
+        <v>202105</v>
+      </c>
+      <c r="D104">
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>7</v>
+      </c>
+      <c r="B105">
+        <v>0.13619999999999999</v>
+      </c>
+      <c r="C105">
+        <v>202106</v>
+      </c>
+      <c r="D105">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>7</v>
+      </c>
+      <c r="B106">
+        <v>8.48E-2</v>
+      </c>
+      <c r="C106">
+        <v>202107</v>
+      </c>
+      <c r="D106">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>7</v>
+      </c>
+      <c r="B107">
+        <v>0.1353</v>
+      </c>
+      <c r="C107">
+        <v>202108</v>
+      </c>
+      <c r="D107">
+        <v>7.5499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>7</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>202109</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>7</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>202110</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>7</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>202111</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>7</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>202112</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>7</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>202201</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>7</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>202202</v>
+      </c>
+      <c r="D113">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K3:N3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;K000000 Public Content&amp;1#_x000D_</oddHeader>

--- a/slinear_VTRF.xlsx
+++ b/slinear_VTRF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime Santos\Documents\DataSBAMF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A2F1DAF8-8D33-4D74-993F-130ECE0756D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E0C498F-AF7A-4E1F-A9C7-A76C75F5CC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A3B69415-6897-42F1-A06F-FA1D07EB1FB7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>MOB</t>
   </si>
@@ -48,12 +48,30 @@
   <si>
     <t>PDMonthVal</t>
   </si>
+  <si>
+    <t>1+ DPD (Principal outstanding  / Total number of funded accounts)</t>
+  </si>
+  <si>
+    <t>Month of Disbursement</t>
+  </si>
+  <si>
+    <t>Total Loan Amount</t>
+  </si>
+  <si>
+    <t>Booking Month</t>
+  </si>
+  <si>
+    <t>%As of Today X</t>
+  </si>
+  <si>
+    <t>Avalue</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,13 +79,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE6F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF95B3D7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -79,15 +140,45 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -399,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B54582-0077-496F-B3B4-177A38B35C89}">
-  <dimension ref="A1:N113"/>
+  <dimension ref="A1:R114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F111" sqref="F111"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="M106" sqref="M106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -410,7 +501,7 @@
     <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,8 +514,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E1" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -437,8 +531,11 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E2" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -451,12 +548,20 @@
       <c r="D3">
         <v>4.4400000000000002E-2</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E3" s="11">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -469,8 +574,11 @@
       <c r="D4">
         <v>9.35E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -483,8 +591,17 @@
       <c r="D5">
         <v>2.6599999999999999E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E5" s="11">
+        <v>3.32E-2</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -497,8 +614,41 @@
       <c r="D6">
         <v>0.14299999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E6" s="11">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3">
+        <v>2</v>
+      </c>
+      <c r="N6" s="3">
+        <v>3</v>
+      </c>
+      <c r="O6" s="3">
+        <v>4</v>
+      </c>
+      <c r="P6" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>6</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -511,8 +661,41 @@
       <c r="D7">
         <v>1.78E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E7" s="11">
+        <v>1.35E-2</v>
+      </c>
+      <c r="I7" s="4">
+        <v>64982000</v>
+      </c>
+      <c r="J7" s="5">
+        <v>202101</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="M7" s="6">
+        <v>7.7299999999999994E-2</v>
+      </c>
+      <c r="N7" s="6">
+        <v>8.3799999999999999E-2</v>
+      </c>
+      <c r="O7" s="6">
+        <v>7.8799999999999995E-2</v>
+      </c>
+      <c r="P7" s="6">
+        <v>9.1300000000000006E-2</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>9.3100000000000002E-2</v>
+      </c>
+      <c r="R7" s="7">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -525,8 +708,41 @@
       <c r="D8">
         <v>3.85E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>77536000</v>
+      </c>
+      <c r="J8" s="5">
+        <v>202102</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>9.35E-2</v>
+      </c>
+      <c r="M8" s="6">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="N8" s="6">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="O8" s="6">
+        <v>9.4399999999999998E-2</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0.11360000000000001</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>0.1113</v>
+      </c>
+      <c r="R8" s="7">
+        <v>8.0699999999999994E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -539,8 +755,41 @@
       <c r="D9">
         <v>5.7700000000000001E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>112215000</v>
+      </c>
+      <c r="J9" s="5">
+        <v>202103</v>
+      </c>
+      <c r="K9" s="6">
+        <v>3.32E-2</v>
+      </c>
+      <c r="L9" s="6">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="M9" s="6">
+        <v>7.3099999999999998E-2</v>
+      </c>
+      <c r="N9" s="6">
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="O9" s="6">
+        <v>6.7599999999999993E-2</v>
+      </c>
+      <c r="P9" s="6">
+        <v>9.5299999999999996E-2</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>8.3199999999999996E-2</v>
+      </c>
+      <c r="R9" s="7">
+        <v>7.7600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
@@ -553,8 +802,41 @@
       <c r="D10">
         <v>4.1000000000000002E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E10" s="11">
+        <v>5.5E-2</v>
+      </c>
+      <c r="I10" s="4">
+        <v>111911000</v>
+      </c>
+      <c r="J10" s="5">
+        <v>202104</v>
+      </c>
+      <c r="K10" s="6">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="M10" s="6">
+        <v>4.7899999999999998E-2</v>
+      </c>
+      <c r="N10" s="6">
+        <v>9.7799999999999998E-2</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0.19020000000000001</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0.13339999999999999</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>0.1472</v>
+      </c>
+      <c r="R10" s="7">
+        <v>0.1555</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
@@ -567,8 +849,41 @@
       <c r="D11">
         <v>3.0300000000000001E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>218686227</v>
+      </c>
+      <c r="J11" s="5">
+        <v>202105</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1.35E-2</v>
+      </c>
+      <c r="L11" s="6">
+        <v>1.78E-2</v>
+      </c>
+      <c r="M11" s="6">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="N11" s="6">
+        <v>5.3499999999999999E-2</v>
+      </c>
+      <c r="O11" s="6">
+        <v>5.9700000000000003E-2</v>
+      </c>
+      <c r="P11" s="6">
+        <v>6.5600000000000006E-2</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>5.6800000000000003E-2</v>
+      </c>
+      <c r="R11" s="7">
+        <v>4.9700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -581,8 +896,41 @@
       <c r="D12">
         <v>1.84E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E12" s="11">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>229378077</v>
+      </c>
+      <c r="J12" s="5">
+        <v>202106</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
+        <v>3.85E-2</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0.1047</v>
+      </c>
+      <c r="N12" s="6">
+        <v>7.6700000000000004E-2</v>
+      </c>
+      <c r="O12" s="6">
+        <v>8.3699999999999997E-2</v>
+      </c>
+      <c r="P12" s="6">
+        <v>8.1199999999999994E-2</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="R12" s="7">
+        <v>7.22E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
@@ -595,8 +943,41 @@
       <c r="D13">
         <v>6.08E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E13" s="11">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>368390600</v>
+      </c>
+      <c r="J13" s="5">
+        <v>202107</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6">
+        <v>5.7700000000000001E-2</v>
+      </c>
+      <c r="M13" s="6">
+        <v>7.1099999999999997E-2</v>
+      </c>
+      <c r="N13" s="6">
+        <v>9.2799999999999994E-2</v>
+      </c>
+      <c r="O13" s="6">
+        <v>9.64E-2</v>
+      </c>
+      <c r="P13" s="6">
+        <v>9.7699999999999995E-2</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="R13" s="7">
+        <v>9.6799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0</v>
       </c>
@@ -609,8 +990,41 @@
       <c r="D14">
         <v>8.1299999999999997E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E14" s="11">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="I14" s="4">
+        <v>312598600</v>
+      </c>
+      <c r="J14" s="5">
+        <v>202108</v>
+      </c>
+      <c r="K14" s="6">
+        <v>5.5E-2</v>
+      </c>
+      <c r="L14" s="6">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="M14" s="6">
+        <v>6.1400000000000003E-2</v>
+      </c>
+      <c r="N14" s="6">
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="O14" s="6">
+        <v>9.6199999999999994E-2</v>
+      </c>
+      <c r="P14" s="6">
+        <v>8.9700000000000002E-2</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="R14" s="7">
+        <v>9.1399999999999995E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0</v>
       </c>
@@ -623,8 +1037,41 @@
       <c r="D15">
         <v>6.5699999999999995E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E15" s="11">
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="I15" s="4">
+        <v>149148100</v>
+      </c>
+      <c r="J15" s="5">
+        <v>202109</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
+      <c r="L15" s="6">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="M15" s="6">
+        <v>4.1099999999999998E-2</v>
+      </c>
+      <c r="N15" s="6">
+        <v>7.1599999999999997E-2</v>
+      </c>
+      <c r="O15" s="6">
+        <v>7.2400000000000006E-2</v>
+      </c>
+      <c r="P15" s="6">
+        <v>5.7700000000000001E-2</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>7.51E-2</v>
+      </c>
+      <c r="R15" s="7">
+        <v>7.51E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -637,8 +1084,41 @@
       <c r="D16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" s="11">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>245151600</v>
+      </c>
+      <c r="J16" s="5">
+        <v>202110</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+      <c r="L16" s="6">
+        <v>1.84E-2</v>
+      </c>
+      <c r="M16" s="6">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="N16" s="6">
+        <v>6.3100000000000003E-2</v>
+      </c>
+      <c r="O16" s="6">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="P16" s="6">
+        <v>7.1199999999999999E-2</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>0</v>
+      </c>
+      <c r="R16" s="7">
+        <v>7.1199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -651,8 +1131,41 @@
       <c r="D17">
         <v>7.7299999999999994E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="11">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="I17" s="4">
+        <v>242807900</v>
+      </c>
+      <c r="J17" s="5">
+        <v>202111</v>
+      </c>
+      <c r="K17" s="6">
+        <v>0</v>
+      </c>
+      <c r="L17" s="6">
+        <v>6.08E-2</v>
+      </c>
+      <c r="M17" s="6">
+        <v>8.3500000000000005E-2</v>
+      </c>
+      <c r="N17" s="6">
+        <v>5.9900000000000002E-2</v>
+      </c>
+      <c r="O17" s="6">
+        <v>9.4E-2</v>
+      </c>
+      <c r="P17" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>0</v>
+      </c>
+      <c r="R17" s="7">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -665,8 +1178,41 @@
       <c r="D18">
         <v>9.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" s="11">
+        <v>9.35E-2</v>
+      </c>
+      <c r="I18" s="4">
+        <v>307014200</v>
+      </c>
+      <c r="J18" s="5">
+        <v>202112</v>
+      </c>
+      <c r="K18" s="6">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="L18" s="6">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="M18" s="6">
+        <v>6.88E-2</v>
+      </c>
+      <c r="N18" s="6">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="O18" s="6">
+        <v>0</v>
+      </c>
+      <c r="P18" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>0</v>
+      </c>
+      <c r="R18" s="7">
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -679,8 +1225,41 @@
       <c r="D19">
         <v>7.3099999999999998E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" s="11">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="I19" s="4">
+        <v>356478300</v>
+      </c>
+      <c r="J19" s="5">
+        <v>202201</v>
+      </c>
+      <c r="K19" s="6">
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="L19" s="6">
+        <v>6.5699999999999995E-2</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0.13170000000000001</v>
+      </c>
+      <c r="N19" s="6">
+        <v>0</v>
+      </c>
+      <c r="O19" s="6">
+        <v>0</v>
+      </c>
+      <c r="P19" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>0</v>
+      </c>
+      <c r="R19" s="7">
+        <v>0.13170000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -693,8 +1272,41 @@
       <c r="D20">
         <v>4.7899999999999998E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" s="11">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="I20" s="4">
+        <v>330305900</v>
+      </c>
+      <c r="J20" s="5">
+        <v>202202</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0</v>
+      </c>
+      <c r="L20" s="6">
+        <v>0.10920000000000001</v>
+      </c>
+      <c r="M20" s="6">
+        <v>0</v>
+      </c>
+      <c r="N20" s="6">
+        <v>0</v>
+      </c>
+      <c r="O20" s="6">
+        <v>0</v>
+      </c>
+      <c r="P20" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>0</v>
+      </c>
+      <c r="R20" s="7">
+        <v>0.10920000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -707,8 +1319,11 @@
       <c r="D21">
         <v>3.7600000000000001E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" s="11">
+        <v>1.78E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -721,8 +1336,11 @@
       <c r="D22">
         <v>0.1047</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" s="11">
+        <v>3.85E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -735,8 +1353,11 @@
       <c r="D23">
         <v>7.1099999999999997E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" s="11">
+        <v>5.7700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -749,8 +1370,11 @@
       <c r="D24">
         <v>6.1400000000000003E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" s="11">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -763,8 +1387,11 @@
       <c r="D25">
         <v>4.1099999999999998E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" s="11">
+        <v>3.0300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -777,8 +1404,11 @@
       <c r="D26">
         <v>5.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" s="11">
+        <v>1.84E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -791,8 +1421,11 @@
       <c r="D27">
         <v>8.3500000000000005E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" s="11">
+        <v>6.08E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -805,8 +1438,11 @@
       <c r="D28">
         <v>6.88E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" s="11">
+        <v>8.1299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -819,8 +1455,11 @@
       <c r="D29">
         <v>0.13170000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" s="11">
+        <v>6.5699999999999995E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -833,8 +1472,11 @@
       <c r="D30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
@@ -847,8 +1489,11 @@
       <c r="D31">
         <v>8.3799999999999999E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" s="11">
+        <v>7.7299999999999994E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2</v>
       </c>
@@ -861,8 +1506,11 @@
       <c r="D32">
         <v>9.2499999999999999E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" s="11">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2</v>
       </c>
@@ -875,8 +1523,11 @@
       <c r="D33">
         <v>4.3200000000000002E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33" s="11">
+        <v>7.3099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2</v>
       </c>
@@ -889,8 +1540,11 @@
       <c r="D34">
         <v>9.7799999999999998E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34" s="11">
+        <v>4.7899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
@@ -903,8 +1557,11 @@
       <c r="D35">
         <v>5.3499999999999999E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35" s="11">
+        <v>3.7600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2</v>
       </c>
@@ -917,8 +1574,11 @@
       <c r="D36">
         <v>7.6700000000000004E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36" s="11">
+        <v>0.1047</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2</v>
       </c>
@@ -931,8 +1591,11 @@
       <c r="D37">
         <v>9.2799999999999994E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37" s="11">
+        <v>7.1099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2</v>
       </c>
@@ -945,8 +1608,11 @@
       <c r="D38">
         <v>7.0800000000000002E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38" s="11">
+        <v>6.1400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2</v>
       </c>
@@ -959,8 +1625,11 @@
       <c r="D39">
         <v>7.1599999999999997E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39" s="11">
+        <v>4.1099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2</v>
       </c>
@@ -973,8 +1642,11 @@
       <c r="D40">
         <v>6.3100000000000003E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40" s="11">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2</v>
       </c>
@@ -987,8 +1659,11 @@
       <c r="D41">
         <v>5.9900000000000002E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41" s="11">
+        <v>8.3500000000000005E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1001,8 +1676,11 @@
       <c r="D42">
         <v>9.9000000000000005E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42" s="11">
+        <v>6.88E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1015,8 +1693,11 @@
       <c r="D43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43" s="11">
+        <v>0.13170000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3</v>
       </c>
@@ -1029,8 +1710,11 @@
       <c r="D44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>3</v>
       </c>
@@ -1043,8 +1727,11 @@
       <c r="D45">
         <v>7.8799999999999995E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45" s="11">
+        <v>8.3799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
@@ -1057,8 +1744,11 @@
       <c r="D46">
         <v>9.4399999999999998E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46" s="11">
+        <v>9.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>3</v>
       </c>
@@ -1071,8 +1761,11 @@
       <c r="D47">
         <v>6.7599999999999993E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47" s="11">
+        <v>4.3200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>3</v>
       </c>
@@ -1085,8 +1778,11 @@
       <c r="D48">
         <v>0.19020000000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48" s="11">
+        <v>9.7799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>3</v>
       </c>
@@ -1099,8 +1795,11 @@
       <c r="D49">
         <v>5.9700000000000003E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49" s="11">
+        <v>5.3499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>3</v>
       </c>
@@ -1113,8 +1812,11 @@
       <c r="D50">
         <v>8.3699999999999997E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50" s="11">
+        <v>7.6700000000000004E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>3</v>
       </c>
@@ -1127,8 +1829,11 @@
       <c r="D51">
         <v>9.64E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51" s="11">
+        <v>9.2799999999999994E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>3</v>
       </c>
@@ -1141,8 +1846,11 @@
       <c r="D52">
         <v>9.6199999999999994E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52" s="11">
+        <v>7.0800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>3</v>
       </c>
@@ -1155,8 +1863,11 @@
       <c r="D53">
         <v>7.2400000000000006E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E53" s="11">
+        <v>7.1599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>3</v>
       </c>
@@ -1169,8 +1880,11 @@
       <c r="D54">
         <v>4.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54" s="11">
+        <v>6.3100000000000003E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>3</v>
       </c>
@@ -1183,8 +1897,11 @@
       <c r="D55">
         <v>9.4E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55" s="11">
+        <v>5.9900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>3</v>
       </c>
@@ -1197,8 +1914,11 @@
       <c r="D56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56" s="11">
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>3</v>
       </c>
@@ -1211,8 +1931,11 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>4</v>
       </c>
@@ -1225,8 +1948,11 @@
       <c r="D58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E58" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>4</v>
       </c>
@@ -1239,8 +1965,11 @@
       <c r="D59">
         <v>9.1300000000000006E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59" s="11">
+        <v>7.8799999999999995E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>4</v>
       </c>
@@ -1253,8 +1982,11 @@
       <c r="D60">
         <v>0.11360000000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E60" s="11">
+        <v>9.4399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>4</v>
       </c>
@@ -1267,8 +1999,11 @@
       <c r="D61">
         <v>9.5299999999999996E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E61" s="11">
+        <v>6.7599999999999993E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>4</v>
       </c>
@@ -1281,8 +2016,11 @@
       <c r="D62">
         <v>0.13339999999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E62" s="11">
+        <v>0.19020000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>4</v>
       </c>
@@ -1295,8 +2033,11 @@
       <c r="D63">
         <v>6.5600000000000006E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E63" s="11">
+        <v>5.9700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>4</v>
       </c>
@@ -1309,8 +2050,11 @@
       <c r="D64">
         <v>8.1199999999999994E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E64" s="11">
+        <v>8.3699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>4</v>
       </c>
@@ -1323,8 +2067,11 @@
       <c r="D65">
         <v>9.7699999999999995E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E65" s="11">
+        <v>9.64E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>4</v>
       </c>
@@ -1337,8 +2084,11 @@
       <c r="D66">
         <v>8.9700000000000002E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E66" s="11">
+        <v>9.6199999999999994E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>4</v>
       </c>
@@ -1351,8 +2101,11 @@
       <c r="D67">
         <v>5.7700000000000001E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E67" s="11">
+        <v>7.2400000000000006E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>4</v>
       </c>
@@ -1365,8 +2118,11 @@
       <c r="D68">
         <v>7.1199999999999999E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E68" s="11">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>4</v>
       </c>
@@ -1379,8 +2135,11 @@
       <c r="D69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E69" s="11">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>4</v>
       </c>
@@ -1393,8 +2152,11 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E70" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>4</v>
       </c>
@@ -1407,8 +2169,11 @@
       <c r="D71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E71" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>5</v>
       </c>
@@ -1421,8 +2186,11 @@
       <c r="D72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E72" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>5</v>
       </c>
@@ -1435,8 +2203,11 @@
       <c r="D73">
         <v>9.3100000000000002E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E73" s="11">
+        <v>9.1300000000000006E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>5</v>
       </c>
@@ -1449,8 +2220,11 @@
       <c r="D74">
         <v>0.1113</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E74" s="11">
+        <v>0.11360000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>5</v>
       </c>
@@ -1463,8 +2237,11 @@
       <c r="D75">
         <v>8.3199999999999996E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E75" s="11">
+        <v>9.5299999999999996E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>5</v>
       </c>
@@ -1477,8 +2254,11 @@
       <c r="D76">
         <v>0.1472</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E76" s="11">
+        <v>0.13339999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>5</v>
       </c>
@@ -1491,8 +2271,11 @@
       <c r="D77">
         <v>5.6800000000000003E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E77" s="11">
+        <v>6.5600000000000006E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>5</v>
       </c>
@@ -1505,8 +2288,11 @@
       <c r="D78">
         <v>7.7499999999999999E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E78" s="11">
+        <v>8.1199999999999994E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>5</v>
       </c>
@@ -1519,8 +2305,11 @@
       <c r="D79">
         <v>9.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E79" s="11">
+        <v>9.7699999999999995E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>5</v>
       </c>
@@ -1533,8 +2322,11 @@
       <c r="D80">
         <v>9.7500000000000003E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E80" s="11">
+        <v>8.9700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>5</v>
       </c>
@@ -1547,8 +2339,11 @@
       <c r="D81">
         <v>7.51E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E81" s="11">
+        <v>5.7700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>5</v>
       </c>
@@ -1561,8 +2356,11 @@
       <c r="D82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E82" s="11">
+        <v>7.1199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>5</v>
       </c>
@@ -1575,8 +2373,11 @@
       <c r="D83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E83" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>5</v>
       </c>
@@ -1589,8 +2390,11 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E84" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>5</v>
       </c>
@@ -1603,8 +2407,11 @@
       <c r="D85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E85" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>6</v>
       </c>
@@ -1617,8 +2424,11 @@
       <c r="D86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E86" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>6</v>
       </c>
@@ -1631,8 +2441,11 @@
       <c r="D87">
         <v>0.1087</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E87" s="11">
+        <v>9.3100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>6</v>
       </c>
@@ -1645,8 +2458,11 @@
       <c r="D88">
         <v>8.2600000000000007E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E88" s="11">
+        <v>0.1113</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>6</v>
       </c>
@@ -1659,8 +2475,11 @@
       <c r="D89">
         <v>0.109</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E89" s="11">
+        <v>8.3199999999999996E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>6</v>
       </c>
@@ -1673,8 +2492,11 @@
       <c r="D90">
         <v>6.4600000000000005E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E90" s="11">
+        <v>0.1472</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>6</v>
       </c>
@@ -1687,8 +2509,11 @@
       <c r="D91">
         <v>0.19450000000000001</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E91" s="11">
+        <v>5.6800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>6</v>
       </c>
@@ -1701,8 +2526,11 @@
       <c r="D92">
         <v>0.13619999999999999</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E92" s="11">
+        <v>7.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>6</v>
       </c>
@@ -1715,8 +2543,11 @@
       <c r="D93">
         <v>8.48E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E93" s="11">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>6</v>
       </c>
@@ -1729,8 +2560,11 @@
       <c r="D94">
         <v>0.1353</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E94" s="11">
+        <v>9.7500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>6</v>
       </c>
@@ -1743,8 +2577,11 @@
       <c r="D95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E95" s="11">
+        <v>7.51E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>6</v>
       </c>
@@ -1757,8 +2594,11 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E96" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>6</v>
       </c>
@@ -1771,8 +2611,11 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E97" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>6</v>
       </c>
@@ -1785,8 +2628,11 @@
       <c r="D98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E98" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>6</v>
       </c>
@@ -1799,8 +2645,11 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E99" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>7</v>
       </c>
@@ -1813,8 +2662,11 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E100" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>7</v>
       </c>
@@ -1827,8 +2679,11 @@
       <c r="D101">
         <v>9.2700000000000005E-2</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E101" s="10">
+        <v>0.1087</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>7</v>
       </c>
@@ -1841,8 +2696,11 @@
       <c r="D102">
         <v>0.123</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E102" s="10">
+        <v>8.2600000000000007E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>7</v>
       </c>
@@ -1855,8 +2713,11 @@
       <c r="D103">
         <v>8.8999999999999996E-2</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E103" s="10">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>7</v>
       </c>
@@ -1869,8 +2730,11 @@
       <c r="D104">
         <v>0.184</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E104" s="10">
+        <v>6.4600000000000005E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>7</v>
       </c>
@@ -1883,8 +2747,11 @@
       <c r="D105">
         <v>4.9000000000000002E-2</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E105" s="10">
+        <v>0.19450000000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>7</v>
       </c>
@@ -1897,8 +2764,11 @@
       <c r="D106">
         <v>0.106</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E106" s="10">
+        <v>0.13619999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>7</v>
       </c>
@@ -1911,8 +2781,11 @@
       <c r="D107">
         <v>7.5499999999999998E-2</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E107" s="10">
+        <v>8.48E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>7</v>
       </c>
@@ -1925,8 +2798,11 @@
       <c r="D108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E108" s="10">
+        <v>0.1353</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>7</v>
       </c>
@@ -1939,8 +2815,11 @@
       <c r="D109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E109" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>7</v>
       </c>
@@ -1953,8 +2832,11 @@
       <c r="D110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E110" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>7</v>
       </c>
@@ -1967,8 +2849,11 @@
       <c r="D111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E111" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>7</v>
       </c>
@@ -1981,8 +2866,11 @@
       <c r="D112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E112" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>7</v>
       </c>
@@ -1995,10 +2883,17 @@
       <c r="D113">
         <v>0</v>
       </c>
+      <c r="E113" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E114" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="K3:N3"/>
+  <mergeCells count="2">
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="K5:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/slinear_VTRF.xlsx
+++ b/slinear_VTRF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime Santos\Documents\DataSBAMF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E0C498F-AF7A-4E1F-A9C7-A76C75F5CC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42F0B6E2-D522-40E1-8684-03813B8F6C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A3B69415-6897-42F1-A06F-FA1D07EB1FB7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>MOB</t>
   </si>
@@ -47,21 +47,6 @@
   </si>
   <si>
     <t>PDMonthVal</t>
-  </si>
-  <si>
-    <t>1+ DPD (Principal outstanding  / Total number of funded accounts)</t>
-  </si>
-  <si>
-    <t>Month of Disbursement</t>
-  </si>
-  <si>
-    <t>Total Loan Amount</t>
-  </si>
-  <si>
-    <t>Booking Month</t>
-  </si>
-  <si>
-    <t>%As of Today X</t>
   </si>
   <si>
     <t>Avalue</t>
@@ -492,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B54582-0077-496F-B3B4-177A38B35C89}">
   <dimension ref="A1:R114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="M106" sqref="M106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,7 +500,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -551,9 +536,7 @@
       <c r="E3" s="11">
         <v>0</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -594,9 +577,7 @@
       <c r="E5" s="11">
         <v>3.32E-2</v>
       </c>
-      <c r="K5" s="9" t="s">
-        <v>5</v>
-      </c>
+      <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
@@ -617,36 +598,16 @@
       <c r="E6" s="11">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>1</v>
-      </c>
-      <c r="M6" s="3">
-        <v>2</v>
-      </c>
-      <c r="N6" s="3">
-        <v>3</v>
-      </c>
-      <c r="O6" s="3">
-        <v>4</v>
-      </c>
-      <c r="P6" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>6</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="2"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -664,36 +625,16 @@
       <c r="E7" s="11">
         <v>1.35E-2</v>
       </c>
-      <c r="I7" s="4">
-        <v>64982000</v>
-      </c>
-      <c r="J7" s="5">
-        <v>202101</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0</v>
-      </c>
-      <c r="L7" s="6">
-        <v>4.4400000000000002E-2</v>
-      </c>
-      <c r="M7" s="6">
-        <v>7.7299999999999994E-2</v>
-      </c>
-      <c r="N7" s="6">
-        <v>8.3799999999999999E-2</v>
-      </c>
-      <c r="O7" s="6">
-        <v>7.8799999999999995E-2</v>
-      </c>
-      <c r="P7" s="6">
-        <v>9.1300000000000006E-2</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>9.3100000000000002E-2</v>
-      </c>
-      <c r="R7" s="7">
-        <v>8.3000000000000004E-2</v>
-      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="7"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -711,36 +652,16 @@
       <c r="E8" s="11">
         <v>0</v>
       </c>
-      <c r="I8" s="4">
-        <v>77536000</v>
-      </c>
-      <c r="J8" s="5">
-        <v>202102</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6">
-        <v>9.35E-2</v>
-      </c>
-      <c r="M8" s="6">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="N8" s="6">
-        <v>9.2499999999999999E-2</v>
-      </c>
-      <c r="O8" s="6">
-        <v>9.4399999999999998E-2</v>
-      </c>
-      <c r="P8" s="6">
-        <v>0.11360000000000001</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>0.1113</v>
-      </c>
-      <c r="R8" s="7">
-        <v>8.0699999999999994E-2</v>
-      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="7"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -758,36 +679,16 @@
       <c r="E9" s="11">
         <v>0</v>
       </c>
-      <c r="I9" s="4">
-        <v>112215000</v>
-      </c>
-      <c r="J9" s="5">
-        <v>202103</v>
-      </c>
-      <c r="K9" s="6">
-        <v>3.32E-2</v>
-      </c>
-      <c r="L9" s="6">
-        <v>2.6599999999999999E-2</v>
-      </c>
-      <c r="M9" s="6">
-        <v>7.3099999999999998E-2</v>
-      </c>
-      <c r="N9" s="6">
-        <v>4.3200000000000002E-2</v>
-      </c>
-      <c r="O9" s="6">
-        <v>6.7599999999999993E-2</v>
-      </c>
-      <c r="P9" s="6">
-        <v>9.5299999999999996E-2</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>8.3199999999999996E-2</v>
-      </c>
-      <c r="R9" s="7">
-        <v>7.7600000000000002E-2</v>
-      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -805,36 +706,16 @@
       <c r="E10" s="11">
         <v>5.5E-2</v>
       </c>
-      <c r="I10" s="4">
-        <v>111911000</v>
-      </c>
-      <c r="J10" s="5">
-        <v>202104</v>
-      </c>
-      <c r="K10" s="6">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="L10" s="6">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="M10" s="6">
-        <v>4.7899999999999998E-2</v>
-      </c>
-      <c r="N10" s="6">
-        <v>9.7799999999999998E-2</v>
-      </c>
-      <c r="O10" s="6">
-        <v>0.19020000000000001</v>
-      </c>
-      <c r="P10" s="6">
-        <v>0.13339999999999999</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>0.1472</v>
-      </c>
-      <c r="R10" s="7">
-        <v>0.1555</v>
-      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="7"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -852,36 +733,16 @@
       <c r="E11" s="11">
         <v>0</v>
       </c>
-      <c r="I11" s="4">
-        <v>218686227</v>
-      </c>
-      <c r="J11" s="5">
-        <v>202105</v>
-      </c>
-      <c r="K11" s="6">
-        <v>1.35E-2</v>
-      </c>
-      <c r="L11" s="6">
-        <v>1.78E-2</v>
-      </c>
-      <c r="M11" s="6">
-        <v>3.7600000000000001E-2</v>
-      </c>
-      <c r="N11" s="6">
-        <v>5.3499999999999999E-2</v>
-      </c>
-      <c r="O11" s="6">
-        <v>5.9700000000000003E-2</v>
-      </c>
-      <c r="P11" s="6">
-        <v>6.5600000000000006E-2</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>5.6800000000000003E-2</v>
-      </c>
-      <c r="R11" s="7">
-        <v>4.9700000000000001E-2</v>
-      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="7"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -899,36 +760,16 @@
       <c r="E12" s="11">
         <v>0</v>
       </c>
-      <c r="I12" s="4">
-        <v>229378077</v>
-      </c>
-      <c r="J12" s="5">
-        <v>202106</v>
-      </c>
-      <c r="K12" s="6">
-        <v>0</v>
-      </c>
-      <c r="L12" s="6">
-        <v>3.85E-2</v>
-      </c>
-      <c r="M12" s="6">
-        <v>0.1047</v>
-      </c>
-      <c r="N12" s="6">
-        <v>7.6700000000000004E-2</v>
-      </c>
-      <c r="O12" s="6">
-        <v>8.3699999999999997E-2</v>
-      </c>
-      <c r="P12" s="6">
-        <v>8.1199999999999994E-2</v>
-      </c>
-      <c r="Q12" s="6">
-        <v>7.7499999999999999E-2</v>
-      </c>
-      <c r="R12" s="7">
-        <v>7.22E-2</v>
-      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="7"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -946,36 +787,16 @@
       <c r="E13" s="11">
         <v>0</v>
       </c>
-      <c r="I13" s="4">
-        <v>368390600</v>
-      </c>
-      <c r="J13" s="5">
-        <v>202107</v>
-      </c>
-      <c r="K13" s="6">
-        <v>0</v>
-      </c>
-      <c r="L13" s="6">
-        <v>5.7700000000000001E-2</v>
-      </c>
-      <c r="M13" s="6">
-        <v>7.1099999999999997E-2</v>
-      </c>
-      <c r="N13" s="6">
-        <v>9.2799999999999994E-2</v>
-      </c>
-      <c r="O13" s="6">
-        <v>9.64E-2</v>
-      </c>
-      <c r="P13" s="6">
-        <v>9.7699999999999995E-2</v>
-      </c>
-      <c r="Q13" s="6">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="R13" s="7">
-        <v>9.6799999999999997E-2</v>
-      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="7"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -993,36 +814,16 @@
       <c r="E14" s="11">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="I14" s="4">
-        <v>312598600</v>
-      </c>
-      <c r="J14" s="5">
-        <v>202108</v>
-      </c>
-      <c r="K14" s="6">
-        <v>5.5E-2</v>
-      </c>
-      <c r="L14" s="6">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="M14" s="6">
-        <v>6.1400000000000003E-2</v>
-      </c>
-      <c r="N14" s="6">
-        <v>7.0800000000000002E-2</v>
-      </c>
-      <c r="O14" s="6">
-        <v>9.6199999999999994E-2</v>
-      </c>
-      <c r="P14" s="6">
-        <v>8.9700000000000002E-2</v>
-      </c>
-      <c r="Q14" s="6">
-        <v>9.7500000000000003E-2</v>
-      </c>
-      <c r="R14" s="7">
-        <v>9.1399999999999995E-2</v>
-      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="7"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -1040,36 +841,16 @@
       <c r="E15" s="11">
         <v>6.3700000000000007E-2</v>
       </c>
-      <c r="I15" s="4">
-        <v>149148100</v>
-      </c>
-      <c r="J15" s="5">
-        <v>202109</v>
-      </c>
-      <c r="K15" s="6">
-        <v>0</v>
-      </c>
-      <c r="L15" s="6">
-        <v>3.0300000000000001E-2</v>
-      </c>
-      <c r="M15" s="6">
-        <v>4.1099999999999998E-2</v>
-      </c>
-      <c r="N15" s="6">
-        <v>7.1599999999999997E-2</v>
-      </c>
-      <c r="O15" s="6">
-        <v>7.2400000000000006E-2</v>
-      </c>
-      <c r="P15" s="6">
-        <v>5.7700000000000001E-2</v>
-      </c>
-      <c r="Q15" s="6">
-        <v>7.51E-2</v>
-      </c>
-      <c r="R15" s="7">
-        <v>7.51E-2</v>
-      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="7"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -1087,36 +868,16 @@
       <c r="E16" s="11">
         <v>0</v>
       </c>
-      <c r="I16" s="4">
-        <v>245151600</v>
-      </c>
-      <c r="J16" s="5">
-        <v>202110</v>
-      </c>
-      <c r="K16" s="6">
-        <v>0</v>
-      </c>
-      <c r="L16" s="6">
-        <v>1.84E-2</v>
-      </c>
-      <c r="M16" s="6">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="N16" s="6">
-        <v>6.3100000000000003E-2</v>
-      </c>
-      <c r="O16" s="6">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="P16" s="6">
-        <v>7.1199999999999999E-2</v>
-      </c>
-      <c r="Q16" s="6">
-        <v>0</v>
-      </c>
-      <c r="R16" s="7">
-        <v>7.1199999999999999E-2</v>
-      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="7"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17">
@@ -1134,36 +895,16 @@
       <c r="E17" s="11">
         <v>4.4400000000000002E-2</v>
       </c>
-      <c r="I17" s="4">
-        <v>242807900</v>
-      </c>
-      <c r="J17" s="5">
-        <v>202111</v>
-      </c>
-      <c r="K17" s="6">
-        <v>0</v>
-      </c>
-      <c r="L17" s="6">
-        <v>6.08E-2</v>
-      </c>
-      <c r="M17" s="6">
-        <v>8.3500000000000005E-2</v>
-      </c>
-      <c r="N17" s="6">
-        <v>5.9900000000000002E-2</v>
-      </c>
-      <c r="O17" s="6">
-        <v>9.4E-2</v>
-      </c>
-      <c r="P17" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="6">
-        <v>0</v>
-      </c>
-      <c r="R17" s="7">
-        <v>9.4E-2</v>
-      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="7"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18">
@@ -1181,36 +922,16 @@
       <c r="E18" s="11">
         <v>9.35E-2</v>
       </c>
-      <c r="I18" s="4">
-        <v>307014200</v>
-      </c>
-      <c r="J18" s="5">
-        <v>202112</v>
-      </c>
-      <c r="K18" s="6">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="L18" s="6">
-        <v>8.1299999999999997E-2</v>
-      </c>
-      <c r="M18" s="6">
-        <v>6.88E-2</v>
-      </c>
-      <c r="N18" s="6">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="O18" s="6">
-        <v>0</v>
-      </c>
-      <c r="P18" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>0</v>
-      </c>
-      <c r="R18" s="7">
-        <v>9.9000000000000005E-2</v>
-      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19">
@@ -1228,36 +949,16 @@
       <c r="E19" s="11">
         <v>2.6599999999999999E-2</v>
       </c>
-      <c r="I19" s="4">
-        <v>356478300</v>
-      </c>
-      <c r="J19" s="5">
-        <v>202201</v>
-      </c>
-      <c r="K19" s="6">
-        <v>6.3700000000000007E-2</v>
-      </c>
-      <c r="L19" s="6">
-        <v>6.5699999999999995E-2</v>
-      </c>
-      <c r="M19" s="6">
-        <v>0.13170000000000001</v>
-      </c>
-      <c r="N19" s="6">
-        <v>0</v>
-      </c>
-      <c r="O19" s="6">
-        <v>0</v>
-      </c>
-      <c r="P19" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="6">
-        <v>0</v>
-      </c>
-      <c r="R19" s="7">
-        <v>0.13170000000000001</v>
-      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="7"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20">
@@ -1275,36 +976,16 @@
       <c r="E20" s="11">
         <v>0.14299999999999999</v>
       </c>
-      <c r="I20" s="4">
-        <v>330305900</v>
-      </c>
-      <c r="J20" s="5">
-        <v>202202</v>
-      </c>
-      <c r="K20" s="6">
-        <v>0</v>
-      </c>
-      <c r="L20" s="6">
-        <v>0.10920000000000001</v>
-      </c>
-      <c r="M20" s="6">
-        <v>0</v>
-      </c>
-      <c r="N20" s="6">
-        <v>0</v>
-      </c>
-      <c r="O20" s="6">
-        <v>0</v>
-      </c>
-      <c r="P20" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="6">
-        <v>0</v>
-      </c>
-      <c r="R20" s="7">
-        <v>0.10920000000000001</v>
-      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="7"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21">

--- a/slinear_VTRF.xlsx
+++ b/slinear_VTRF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime Santos\Documents\DataSBAMF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FABBAD2-1084-4C09-9CC6-2B5B589E115B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A7DF0D-3C48-4D0B-8D69-2A3E05A79691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A3B69415-6897-42F1-A06F-FA1D07EB1FB7}"/>
   </bookViews>
@@ -429,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B54582-0077-496F-B3B4-177A38B35C89}">
   <dimension ref="A1:Q100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="K86" sqref="K86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -613,6 +613,9 @@
       </c>
       <c r="E7" s="1">
         <v>1.35E-2</v>
+      </c>
+      <c r="F7">
+        <v>7.5109999999999996E-2</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>

--- a/slinear_VTRF.xlsx
+++ b/slinear_VTRF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime Santos\Documents\DataSBAMF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A7DF0D-3C48-4D0B-8D69-2A3E05A79691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC68412B-7006-4434-907B-E3BA435B0C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A3B69415-6897-42F1-A06F-FA1D07EB1FB7}"/>
+    <workbookView xWindow="5568" yWindow="5568" windowWidth="11940" windowHeight="6000" xr2:uid="{A3B69415-6897-42F1-A06F-FA1D07EB1FB7}"/>
   </bookViews>
   <sheets>
     <sheet name="slinear_VTRF" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="8">
   <si>
     <t>MOB</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Subsets</t>
   </si>
 </sst>
 </file>
@@ -427,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B54582-0077-496F-B3B4-177A38B35C89}">
-  <dimension ref="A1:Q100"/>
+  <dimension ref="A1:Q99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,10 +458,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -471,11 +474,8 @@
       <c r="D2" s="1">
         <v>4.4400000000000002E-2</v>
       </c>
-      <c r="E2" s="1">
-        <v>3.32E-2</v>
-      </c>
-      <c r="F2" s="1">
-        <v>7.1199999999999999E-2</v>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -491,11 +491,8 @@
       <c r="D3">
         <v>4.4400000000000002E-2</v>
       </c>
-      <c r="E3" s="1">
-        <v>3.32E-2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>9.4E-2</v>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="5"/>
@@ -521,11 +518,8 @@
       <c r="D4">
         <v>9.35E-2</v>
       </c>
-      <c r="E4" s="1">
-        <v>3.32E-2</v>
-      </c>
-      <c r="F4" s="1">
-        <v>9.9000000000000005E-2</v>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -551,11 +545,8 @@
       <c r="D5">
         <v>2.6599999999999999E-2</v>
       </c>
-      <c r="E5" s="1">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.13170000000000001</v>
+      <c r="E5" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -581,11 +572,8 @@
       <c r="D6">
         <v>0.14299999999999999</v>
       </c>
-      <c r="E6" s="1">
-        <v>1.35E-2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.10920000000000001</v>
+      <c r="E6" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -611,11 +599,8 @@
       <c r="D7">
         <v>1.78E-2</v>
       </c>
-      <c r="E7" s="1">
-        <v>1.35E-2</v>
-      </c>
-      <c r="F7">
-        <v>7.5109999999999996E-2</v>
+      <c r="E7" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -641,8 +626,8 @@
       <c r="D8">
         <v>3.85E-2</v>
       </c>
-      <c r="E8" s="1">
-        <v>1.35E-2</v>
+      <c r="E8" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -668,8 +653,8 @@
       <c r="D9">
         <v>5.7700000000000001E-2</v>
       </c>
-      <c r="E9" s="1">
-        <v>5.5E-2</v>
+      <c r="E9" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -695,8 +680,8 @@
       <c r="D10">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="E10" s="1">
-        <v>5.5E-2</v>
+      <c r="E10" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -722,8 +707,8 @@
       <c r="D11">
         <v>3.0300000000000001E-2</v>
       </c>
-      <c r="E11" s="1">
-        <v>5.5E-2</v>
+      <c r="E11" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -749,8 +734,8 @@
       <c r="D12">
         <v>1.84E-2</v>
       </c>
-      <c r="E12" s="1">
-        <v>3.2500000000000001E-2</v>
+      <c r="E12" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -776,8 +761,8 @@
       <c r="D13">
         <v>6.08E-2</v>
       </c>
-      <c r="E13" s="1">
-        <v>3.2500000000000001E-2</v>
+      <c r="E13" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -803,8 +788,8 @@
       <c r="D14">
         <v>8.1299999999999997E-2</v>
       </c>
-      <c r="E14" s="1">
-        <v>6.3700000000000007E-2</v>
+      <c r="E14" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -830,8 +815,8 @@
       <c r="D15">
         <v>6.5699999999999995E-2</v>
       </c>
-      <c r="E15" s="1">
-        <v>4.4400000000000002E-2</v>
+      <c r="E15" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -857,8 +842,8 @@
       <c r="D16" s="1">
         <v>6.5699999999999995E-2</v>
       </c>
-      <c r="E16" s="1">
-        <v>4.4400000000000002E-2</v>
+      <c r="E16" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -884,8 +869,8 @@
       <c r="D17">
         <v>7.7299999999999994E-2</v>
       </c>
-      <c r="E17" s="1">
-        <v>9.35E-2</v>
+      <c r="E17" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -911,8 +896,8 @@
       <c r="D18">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="E18" s="1">
-        <v>2.6599999999999999E-2</v>
+      <c r="E18" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -938,8 +923,8 @@
       <c r="D19">
         <v>7.3099999999999998E-2</v>
       </c>
-      <c r="E19" s="1">
-        <v>0.14299999999999999</v>
+      <c r="E19" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -965,8 +950,8 @@
       <c r="D20">
         <v>4.7899999999999998E-2</v>
       </c>
-      <c r="E20" s="1">
-        <v>1.78E-2</v>
+      <c r="E20" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -992,8 +977,8 @@
       <c r="D21">
         <v>3.7600000000000001E-2</v>
       </c>
-      <c r="E21" s="1">
-        <v>3.85E-2</v>
+      <c r="E21" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1009,8 +994,8 @@
       <c r="D22">
         <v>0.1047</v>
       </c>
-      <c r="E22" s="1">
-        <v>5.7700000000000001E-2</v>
+      <c r="E22" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1026,8 +1011,8 @@
       <c r="D23">
         <v>7.1099999999999997E-2</v>
       </c>
-      <c r="E23" s="1">
-        <v>4.1000000000000002E-2</v>
+      <c r="E23" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1043,8 +1028,8 @@
       <c r="D24">
         <v>6.1400000000000003E-2</v>
       </c>
-      <c r="E24" s="1">
-        <v>3.0300000000000001E-2</v>
+      <c r="E24" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1060,8 +1045,8 @@
       <c r="D25">
         <v>4.1099999999999998E-2</v>
       </c>
-      <c r="E25" s="1">
-        <v>1.84E-2</v>
+      <c r="E25" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -1077,8 +1062,8 @@
       <c r="D26">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="E26" s="1">
-        <v>6.08E-2</v>
+      <c r="E26" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -1094,8 +1079,8 @@
       <c r="D27">
         <v>8.3500000000000005E-2</v>
       </c>
-      <c r="E27" s="1">
-        <v>8.1299999999999997E-2</v>
+      <c r="E27" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -1111,8 +1096,8 @@
       <c r="D28">
         <v>6.88E-2</v>
       </c>
-      <c r="E28" s="1">
-        <v>6.5699999999999995E-2</v>
+      <c r="E28" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -1128,8 +1113,8 @@
       <c r="D29" s="1">
         <v>8.3799999999999999E-2</v>
       </c>
-      <c r="E29" s="1">
-        <v>7.7299999999999994E-2</v>
+      <c r="E29" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -1145,8 +1130,8 @@
       <c r="D30">
         <v>8.3799999999999999E-2</v>
       </c>
-      <c r="E30" s="1">
-        <v>9.5000000000000001E-2</v>
+      <c r="E30" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -1162,8 +1147,8 @@
       <c r="D31">
         <v>9.2499999999999999E-2</v>
       </c>
-      <c r="E31" s="1">
-        <v>7.3099999999999998E-2</v>
+      <c r="E31" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -1179,8 +1164,8 @@
       <c r="D32">
         <v>4.3200000000000002E-2</v>
       </c>
-      <c r="E32" s="1">
-        <v>4.7899999999999998E-2</v>
+      <c r="E32" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1196,8 +1181,8 @@
       <c r="D33">
         <v>9.7799999999999998E-2</v>
       </c>
-      <c r="E33" s="1">
-        <v>3.7600000000000001E-2</v>
+      <c r="E33" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1213,8 +1198,8 @@
       <c r="D34">
         <v>5.3499999999999999E-2</v>
       </c>
-      <c r="E34" s="1">
-        <v>0.1047</v>
+      <c r="E34" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1230,8 +1215,8 @@
       <c r="D35">
         <v>7.6700000000000004E-2</v>
       </c>
-      <c r="E35" s="1">
-        <v>7.1099999999999997E-2</v>
+      <c r="E35" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1247,8 +1232,8 @@
       <c r="D36">
         <v>9.2799999999999994E-2</v>
       </c>
-      <c r="E36" s="1">
-        <v>6.1400000000000003E-2</v>
+      <c r="E36" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1264,8 +1249,8 @@
       <c r="D37">
         <v>7.0800000000000002E-2</v>
       </c>
-      <c r="E37" s="1">
-        <v>4.1099999999999998E-2</v>
+      <c r="E37" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1281,8 +1266,8 @@
       <c r="D38">
         <v>7.1599999999999997E-2</v>
       </c>
-      <c r="E38" s="1">
-        <v>5.1999999999999998E-2</v>
+      <c r="E38" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1298,8 +1283,8 @@
       <c r="D39">
         <v>6.3100000000000003E-2</v>
       </c>
-      <c r="E39" s="1">
-        <v>8.3500000000000005E-2</v>
+      <c r="E39" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1315,8 +1300,8 @@
       <c r="D40">
         <v>5.9900000000000002E-2</v>
       </c>
-      <c r="E40" s="1">
-        <v>6.88E-2</v>
+      <c r="E40" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1332,8 +1317,8 @@
       <c r="D41" s="1">
         <v>7.8799999999999995E-2</v>
       </c>
-      <c r="E41" s="1">
-        <v>9.2499999999999999E-2</v>
+      <c r="E41" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1349,8 +1334,8 @@
       <c r="D42">
         <v>7.8799999999999995E-2</v>
       </c>
-      <c r="E42" s="1">
-        <v>4.3200000000000002E-2</v>
+      <c r="E42" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1366,8 +1351,8 @@
       <c r="D43">
         <v>9.4399999999999998E-2</v>
       </c>
-      <c r="E43" s="1">
-        <v>9.7799999999999998E-2</v>
+      <c r="E43" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1383,8 +1368,8 @@
       <c r="D44">
         <v>6.7599999999999993E-2</v>
       </c>
-      <c r="E44" s="1">
-        <v>5.3499999999999999E-2</v>
+      <c r="E44" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1400,8 +1385,8 @@
       <c r="D45">
         <v>0.19020000000000001</v>
       </c>
-      <c r="E45" s="1">
-        <v>7.6700000000000004E-2</v>
+      <c r="E45" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1417,8 +1402,8 @@
       <c r="D46">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="E46" s="1">
-        <v>9.2799999999999994E-2</v>
+      <c r="E46" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1434,8 +1419,8 @@
       <c r="D47">
         <v>8.3699999999999997E-2</v>
       </c>
-      <c r="E47" s="1">
-        <v>7.0800000000000002E-2</v>
+      <c r="E47" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1451,8 +1436,8 @@
       <c r="D48">
         <v>9.64E-2</v>
       </c>
-      <c r="E48" s="1">
-        <v>7.1599999999999997E-2</v>
+      <c r="E48" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1468,8 +1453,8 @@
       <c r="D49">
         <v>9.6199999999999994E-2</v>
       </c>
-      <c r="E49" s="1">
-        <v>6.3100000000000003E-2</v>
+      <c r="E49" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1485,8 +1470,8 @@
       <c r="D50">
         <v>7.2400000000000006E-2</v>
       </c>
-      <c r="E50" s="1">
-        <v>5.9900000000000002E-2</v>
+      <c r="E50" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1502,8 +1487,8 @@
       <c r="D51">
         <v>9.4E-2</v>
       </c>
-      <c r="E51" s="1">
-        <v>7.8799999999999995E-2</v>
+      <c r="E51" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1519,8 +1504,8 @@
       <c r="D52" s="1">
         <v>9.1300000000000006E-2</v>
       </c>
-      <c r="E52" s="1">
-        <v>0.19020000000000001</v>
+      <c r="E52" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -1536,8 +1521,8 @@
       <c r="D53">
         <v>9.1300000000000006E-2</v>
       </c>
-      <c r="E53" s="1">
-        <v>5.9700000000000003E-2</v>
+      <c r="E53" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -1553,8 +1538,8 @@
       <c r="D54">
         <v>0.11360000000000001</v>
       </c>
-      <c r="E54" s="1">
-        <v>8.3699999999999997E-2</v>
+      <c r="E54" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -1570,8 +1555,8 @@
       <c r="D55">
         <v>9.5299999999999996E-2</v>
       </c>
-      <c r="E55" s="1">
-        <v>9.64E-2</v>
+      <c r="E55" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -1587,8 +1572,8 @@
       <c r="D56">
         <v>0.13339999999999999</v>
       </c>
-      <c r="E56" s="1">
-        <v>9.6199999999999994E-2</v>
+      <c r="E56" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -1604,8 +1589,8 @@
       <c r="D57">
         <v>6.5600000000000006E-2</v>
       </c>
-      <c r="E57" s="1">
-        <v>7.2400000000000006E-2</v>
+      <c r="E57" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -1621,8 +1606,8 @@
       <c r="D58">
         <v>8.1199999999999994E-2</v>
       </c>
-      <c r="E58" s="1">
-        <v>4.5999999999999999E-2</v>
+      <c r="E58" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -1638,8 +1623,8 @@
       <c r="D59">
         <v>8.9700000000000002E-2</v>
       </c>
-      <c r="E59" s="1">
-        <v>9.1300000000000006E-2</v>
+      <c r="E59" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -1655,8 +1640,8 @@
       <c r="D60">
         <v>5.7700000000000001E-2</v>
       </c>
-      <c r="E60" s="1">
-        <v>0.11360000000000001</v>
+      <c r="E60" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -1672,8 +1657,8 @@
       <c r="D61">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="E61" s="1">
-        <v>9.5299999999999996E-2</v>
+      <c r="E61" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -1689,8 +1674,8 @@
       <c r="D62" s="1">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="E62" s="1">
-        <v>9.7699999999999995E-2</v>
+      <c r="E62" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -1706,8 +1691,8 @@
       <c r="D63">
         <v>9.3100000000000002E-2</v>
       </c>
-      <c r="E63" s="1">
-        <v>8.9700000000000002E-2</v>
+      <c r="E63" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -1723,8 +1708,8 @@
       <c r="D64">
         <v>0.1113</v>
       </c>
-      <c r="E64" s="1">
-        <v>5.7700000000000001E-2</v>
+      <c r="E64" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -1740,8 +1725,8 @@
       <c r="D65">
         <v>8.3199999999999996E-2</v>
       </c>
-      <c r="E65" s="1">
-        <v>9.3100000000000002E-2</v>
+      <c r="E65" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -1757,8 +1742,8 @@
       <c r="D66">
         <v>0.1472</v>
       </c>
-      <c r="E66" s="1">
-        <v>0.1113</v>
+      <c r="E66" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -1774,8 +1759,8 @@
       <c r="D67">
         <v>5.6800000000000003E-2</v>
       </c>
-      <c r="E67" s="1">
-        <v>8.3199999999999996E-2</v>
+      <c r="E67" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -1791,8 +1776,8 @@
       <c r="D68">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="E68" s="1">
-        <v>0.1472</v>
+      <c r="E68" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -1808,8 +1793,8 @@
       <c r="D69">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="E69" s="1">
-        <v>5.6800000000000003E-2</v>
+      <c r="E69" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -1825,8 +1810,8 @@
       <c r="D70">
         <v>9.7500000000000003E-2</v>
       </c>
-      <c r="E70" s="1">
-        <v>7.7499999999999999E-2</v>
+      <c r="E70" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -1842,8 +1827,8 @@
       <c r="D71">
         <v>7.51E-2</v>
       </c>
-      <c r="E71" s="1">
-        <v>9.5000000000000001E-2</v>
+      <c r="E71" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -1859,8 +1844,8 @@
       <c r="D72" s="1">
         <v>0.1087</v>
       </c>
-      <c r="E72" s="1">
-        <v>9.7500000000000003E-2</v>
+      <c r="E72" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -1876,8 +1861,8 @@
       <c r="D73">
         <v>0.1087</v>
       </c>
-      <c r="E73" s="4">
-        <v>0.13339999999999999</v>
+      <c r="E73" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -1893,8 +1878,8 @@
       <c r="D74">
         <v>8.2600000000000007E-2</v>
       </c>
-      <c r="E74" s="1">
-        <v>9.4399999999999998E-2</v>
+      <c r="E74" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -1910,8 +1895,8 @@
       <c r="D75">
         <v>0.109</v>
       </c>
-      <c r="E75" s="1">
-        <v>6.5600000000000006E-2</v>
+      <c r="E75" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -1927,8 +1912,8 @@
       <c r="D76">
         <v>6.4600000000000005E-2</v>
       </c>
-      <c r="E76" s="1">
-        <v>8.3799999999999999E-2</v>
+      <c r="E76" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -1944,8 +1929,8 @@
       <c r="D77">
         <v>0.19450000000000001</v>
       </c>
-      <c r="E77" s="1">
-        <v>6.7599999999999993E-2</v>
+      <c r="E77" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -1961,41 +1946,47 @@
       <c r="D78">
         <v>0.13619999999999999</v>
       </c>
-      <c r="E78" s="1">
-        <v>8.1199999999999994E-2</v>
+      <c r="E78" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B79">
-        <v>9.7500000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="C79" s="3">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="D79">
-        <v>8.48E-2</v>
+        <v>7.51E-2</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0.1353</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80" s="3">
+        <v>7.1199999999999999E-2</v>
+      </c>
+      <c r="D80" s="1">
         <v>7.51E-2</v>
       </c>
-      <c r="C80" s="3">
-        <v>9.7500000000000003E-2</v>
-      </c>
-      <c r="D80">
-        <v>0.1353</v>
+      <c r="E80" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -2006,206 +1997,315 @@
       <c r="D81" s="1">
         <v>0.1353</v>
       </c>
+      <c r="E81" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82" s="3">
+        <v>9.4E-2</v>
+      </c>
+      <c r="D82" s="1">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="D82" s="1">
-        <v>7.51E-2</v>
+      <c r="E82" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83" s="3">
+        <v>7.1199999999999999E-2</v>
+      </c>
+      <c r="D83" s="1">
         <v>7.51E-2</v>
       </c>
-      <c r="D83" s="1">
-        <v>0.1353</v>
+      <c r="E83" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84" s="3">
-        <v>9.4E-2</v>
+        <v>7.51E-2</v>
       </c>
       <c r="D84" s="1">
-        <v>7.1199999999999999E-2</v>
-      </c>
-      <c r="E84" s="1"/>
+        <v>0.1353</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85" s="3">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="D85" s="1">
+        <v>9.4E-2</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>4</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86" s="3">
+        <v>9.4E-2</v>
+      </c>
+      <c r="D86" s="1">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="D85" s="1">
-        <v>7.51E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>6</v>
-      </c>
-      <c r="B86">
-        <v>0</v>
-      </c>
-      <c r="C86" s="3">
-        <v>7.51E-2</v>
-      </c>
-      <c r="D86" s="1">
-        <v>0.1353</v>
+      <c r="E86" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="C87" s="3">
-        <v>9.9000000000000005E-2</v>
+        <v>7.1199999999999999E-2</v>
       </c>
       <c r="D87" s="1">
-        <v>9.4E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.1087</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88" s="3">
-        <v>9.4E-2</v>
+        <v>7.51E-2</v>
       </c>
       <c r="D88" s="1">
-        <v>7.1199999999999999E-2</v>
+        <v>0.1353</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89" s="3">
-        <v>7.1199999999999999E-2</v>
+        <v>0.13170000000000001</v>
       </c>
       <c r="D89" s="1">
-        <v>0.1087</v>
+        <v>7.8799999999999995E-2</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
       <c r="C90" s="3">
-        <v>7.51E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="D90" s="1">
-        <v>0.1353</v>
+        <v>9.4E-2</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91" s="3">
-        <v>0.13170000000000001</v>
+        <v>9.4E-2</v>
       </c>
       <c r="D91" s="1">
-        <v>7.8799999999999995E-2</v>
+        <v>7.1199999999999999E-2</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92" s="3">
-        <v>9.9000000000000005E-2</v>
+        <v>9.3100000000000002E-2</v>
       </c>
       <c r="D92" s="1">
-        <v>9.4E-2</v>
+        <v>0.1087</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93" s="3">
-        <v>9.4E-2</v>
+        <v>7.51E-2</v>
       </c>
       <c r="D93" s="1">
-        <v>7.1199999999999999E-2</v>
+        <v>0.1353</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94" s="1">
+        <v>0.10920000000000001</v>
+      </c>
+      <c r="C94" s="3">
+        <v>6.5699999999999995E-2</v>
+      </c>
+      <c r="D94" s="4">
+        <v>0.13170000000000001</v>
+      </c>
+      <c r="E94" t="s">
         <v>5</v>
-      </c>
-      <c r="B94">
-        <v>0</v>
-      </c>
-      <c r="C94" s="3">
-        <v>9.3100000000000002E-2</v>
-      </c>
-      <c r="D94" s="1">
-        <v>0.1087</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>6</v>
-      </c>
-      <c r="B95">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B95" s="1">
+        <v>0.13170000000000001</v>
       </c>
       <c r="C95" s="3">
-        <v>7.51E-2</v>
-      </c>
-      <c r="D95" s="1">
-        <v>0.1353</v>
-      </c>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C100" s="1"/>
+        <v>6.88E-2</v>
+      </c>
+      <c r="D95" s="4">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="E95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>3</v>
+      </c>
+      <c r="B96" s="1">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="C96" s="3">
+        <v>5.9900000000000002E-2</v>
+      </c>
+      <c r="D96" s="4">
+        <v>9.4E-2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>4</v>
+      </c>
+      <c r="B97" s="1">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C97" s="3">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D97" s="4">
+        <v>7.1199999999999999E-2</v>
+      </c>
+      <c r="E97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>7.1199999999999999E-2</v>
+      </c>
+      <c r="C98" s="3">
+        <v>5.7700000000000001E-2</v>
+      </c>
+      <c r="D98" s="4">
+        <v>7.5109999999999996E-2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>6</v>
+      </c>
+      <c r="B99">
+        <v>7.5109999999999996E-2</v>
+      </c>
+      <c r="C99" s="3">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="D99">
+        <v>7.5109999999999996E-2</v>
+      </c>
+      <c r="E99" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/slinear_VTRF.xlsx
+++ b/slinear_VTRF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime Santos\Documents\DataSBAMF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC68412B-7006-4434-907B-E3BA435B0C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{015C1645-20A5-4C9E-A133-19C411E649EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5568" yWindow="5568" windowWidth="11940" windowHeight="6000" xr2:uid="{A3B69415-6897-42F1-A06F-FA1D07EB1FB7}"/>
   </bookViews>
@@ -58,7 +58,7 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>Subsets</t>
+    <t>Subs</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
   <dimension ref="A1:Q99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
